--- a/Data-extracted/final/binding_energies/analysis/graphene.xlsx
+++ b/Data-extracted/final/binding_energies/analysis/graphene.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cooperunion-my.sharepoint.com/personal/andrew_kim_cooper_edu/Documents/Masters/Data_management/Data-extracted/final/binding_energies/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9B412B-9423-4376-8A7C-B49FB6F96547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{0D9B412B-9423-4376-8A7C-B49FB6F96547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E16E9C40-FCEF-4EF2-AC8A-85582B4CD80A}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{5BC3EB17-E26E-494D-BCE9-0C6A5071339D}"/>
+    <workbookView xWindow="-15855" yWindow="5715" windowWidth="15960" windowHeight="12345" xr2:uid="{5BC3EB17-E26E-494D-BCE9-0C6A5071339D}"/>
   </bookViews>
   <sheets>
     <sheet name="graphene" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
   <si>
     <t>NaPS</t>
   </si>
@@ -58,9 +71,6 @@
     <t>Na2S4</t>
   </si>
   <si>
-    <t>0.012915338153220546</t>
-  </si>
-  <si>
     <t>Na2S6</t>
   </si>
   <si>
@@ -70,33 +80,12 @@
     <t>Na2S</t>
   </si>
   <si>
-    <t>0.020067136790544282</t>
-  </si>
-  <si>
     <t>PC</t>
   </si>
   <si>
-    <t>0.025063792944820307</t>
-  </si>
-  <si>
-    <t>0.027258368959451218</t>
-  </si>
-  <si>
-    <t>0.012560926863557142</t>
-  </si>
-  <si>
     <t>Vacuum</t>
   </si>
   <si>
-    <t>0.042525020226548804</t>
-  </si>
-  <si>
-    <t>0.016401411215611006</t>
-  </si>
-  <si>
-    <t>0.016747810108086014</t>
-  </si>
-  <si>
     <t>Na2S8-frozen</t>
   </si>
   <si>
@@ -146,6 +135,24 @@
   </si>
   <si>
     <t>PC - vacuum</t>
+  </si>
+  <si>
+    <t>Binding Energy (kJ/mol)</t>
+  </si>
+  <si>
+    <t>Reference #</t>
+  </si>
+  <si>
+    <t>Jayan2021</t>
+  </si>
+  <si>
+    <t>Yang2022</t>
+  </si>
+  <si>
+    <t>This Work</t>
+  </si>
+  <si>
+    <t>vdW</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1017,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,8 +1084,8 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
+      <c r="D3" s="1">
+        <v>1.2915338153220501E-2</v>
       </c>
       <c r="E3">
         <v>-547.81026999999995</v>
@@ -1095,7 +1102,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1121,7 +1128,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1147,7 +1154,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1155,8 +1162,8 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
+      <c r="D6" s="1">
+        <v>2.0067136790544199E-2</v>
       </c>
       <c r="E6">
         <v>-516.90280129999996</v>
@@ -1179,10 +1186,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.50637929448203E-2</v>
       </c>
       <c r="E7">
         <v>-527.36557519999997</v>
@@ -1205,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>8.5511900000000002E-3</v>
@@ -1225,16 +1232,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.7258368959451201E-2</v>
       </c>
       <c r="E9">
         <v>-568.50687249999999</v>
@@ -1251,13 +1258,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>4.0959600000000001E-3</v>
@@ -1277,16 +1284,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.2560926863557101E-2</v>
       </c>
       <c r="E11">
         <v>-517.0543864</v>
@@ -1309,10 +1316,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.2525020226548797E-2</v>
       </c>
       <c r="E12">
         <v>-527.17576770000005</v>
@@ -1335,10 +1342,10 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.6401411215610999E-2</v>
       </c>
       <c r="E13">
         <v>-547.75850170000001</v>
@@ -1355,13 +1362,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>1.0715832E-2</v>
@@ -1381,16 +1388,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.6747810108086E-2</v>
       </c>
       <c r="E15">
         <v>-588.88439349999999</v>
@@ -1407,13 +1414,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>3.6606155000000001E-2</v>
@@ -1433,7 +1440,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -1460,28 +1467,28 @@
         <v>-50.804811190000002</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>1.0715832E-2</v>
@@ -1492,10 +1499,22 @@
       <c r="D20">
         <v>2.3660993000000002E-2</v>
       </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>-5.3753810000000003E-3</v>
@@ -1506,10 +1525,22 @@
       <c r="D21">
         <v>1.1690037E-2</v>
       </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>96.109459952500004</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>4.0959600000000001E-3</v>
@@ -1520,15 +1551,39 @@
       <c r="D22">
         <v>6.3235749999999997E-3</v>
       </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>47.468159999999997</v>
+      </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>111.64944060480387</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>28.134415870000002</v>
@@ -1539,10 +1594,22 @@
       <c r="D24">
         <v>62.121938200000002</v>
       </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>43.061905146586675</v>
+      </c>
+      <c r="J24" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>-14.11306336</v>
@@ -1553,10 +1620,22 @@
       <c r="D25">
         <v>30.692191130000001</v>
       </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>28.943999999999999</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>10.75394343</v>
@@ -1567,21 +1646,71 @@
       <c r="D26">
         <v>16.602545920000001</v>
       </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>28.134416915999999</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1.9296000000000002</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>43.971375438779795</v>
+      </c>
+      <c r="J28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>10.419840000000001</v>
+      </c>
+      <c r="J29" t="s">
         <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1597,6 +1726,18 @@
       <c r="D30">
         <v>-15.767785249999999</v>
       </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.9648000000000001</v>
+      </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1614,7 +1755,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>-6.090107E-3</v>
@@ -1628,7 +1769,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>-2.2123191E-2</v>
@@ -1642,7 +1783,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34">
         <v>-1.6539017999999999E-2</v>
@@ -1656,13 +1797,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>54.226459640000002</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G35">
         <v>-34.759068470000003</v>
@@ -1670,18 +1811,18 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1714,7 +1855,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>1.6542537E-2</v>
@@ -1728,7 +1869,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>-1.2651849999999999E-2</v>
@@ -1742,7 +1883,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>-2.4045227999999998E-2</v>
@@ -1756,13 +1897,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D44">
         <v>76.905700550000006</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G21:I30">
+    <sortCondition ref="G21:G30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>